--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -462,11 +462,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3334721431601793</v>
+        <v>0.3333941111341119</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Compressed_image0.jpg</t>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image0.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3044504760764539</v>
+        <v>0.24222526489757</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Compressed_image1.jpg</t>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image1.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -499,20 +499,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1481847900431603</v>
+        <v>1.582923345966265</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Compressed_image2.jpg</t>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image2.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -522,20 +522,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2115402109920979</v>
+        <v>1.407938400050625</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Compressed_image3.jpg</t>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image3.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2281264611519873</v>
+        <v>0.8447246060241014</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Compressed_image4.jpg</t>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image4.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3333941111341119</v>
+        <v>0.3579504629597068</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,12 +480,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.24222526489757</v>
+        <v>0.2943732449784875</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -499,16 +499,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.582923345966265</v>
+        <v>0.2047807180788368</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.407938400050625</v>
+        <v>0.1849648810457438</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8447246060241014</v>
+        <v>0.2395636111032218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -568,11 +568,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3579504629597068</v>
+        <v>0.3314488700125366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,12 +480,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2943732449784875</v>
+        <v>0.2107810431625694</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2047807180788368</v>
+        <v>0.2007434659171849</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -522,16 +522,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1849648810457438</v>
+        <v>0.2349675120785832</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2395636111032218</v>
+        <v>0.2123537589795887</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -568,11 +568,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -1,37 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Correct image</t>
+  </si>
+  <si>
+    <t>Correct Response</t>
+  </si>
+  <si>
+    <t>Given Response</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image0.jpg</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image4.jpg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,24 +92,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -420,162 +476,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correct image</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correct Response</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Given Response</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>resolution</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.3314488700125366</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image0.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0.33144887001253659</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>0.2107810431625694</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image1.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.2007434659171849</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image2.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.20074346591718489</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.2349675120785832</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image3.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.23496751207858321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>90</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.2123537589795887</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image4.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.21235375897958869</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -1,83 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>Correct image</t>
-  </si>
-  <si>
-    <t>Correct Response</t>
-  </si>
-  <si>
-    <t>Given Response</t>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
-    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image0.jpg</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image4.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,34 +46,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -476,121 +420,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct image</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Correct Response</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Given Response</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0.33144887001253659</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5544629939995502</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image0.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.2313324360002298</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image1.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2210844870005531</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image2.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1694264010002371</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image3.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>0.2107810431625694</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>0.20074346591718489</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>0.23496751207858321</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>0.21235375897958869</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.2712364649996744</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image4.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5544629939995502</v>
+        <v>0.4834867129993654</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,12 +480,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2313324360002298</v>
+        <v>0.3281857879992458</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2210844870005531</v>
+        <v>0.3399691060003533</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1694264010002371</v>
+        <v>0.2907432890006021</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2712364649996744</v>
+        <v>0.2889046710006369</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -568,11 +568,1046 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.3920607709987962</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image5.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.3304143180012034</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image6.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3926839900013874</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image7.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4147940460006794</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image8.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2739968209989456</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image9.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2983872549993976</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image10.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2687448000015138</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image11.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2577109970006859</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image12.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.3328455169994413</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image13.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.3037651140002708</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image14.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3271402840000519</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image15.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.2746969500003615</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image16.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.2464553690006142</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image17.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.2699986750012613</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image18.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2382608560001245</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image19.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2522859689997858</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image20.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2229682540000795</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image21.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2015339329991548</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image22.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4831545699998969</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image23.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2435143340007926</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image24.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.2255671130005794</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image25.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.2581957509992208</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image26.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2274324469999556</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image27.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2377748189992417</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image28.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3459027929984586</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image29.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.1906677240003773</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image30.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.2482116070004849</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image31.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2422285350003222</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image32.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.3479648610009463</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image33.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.2295551049992355</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image34.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.2708994089989574</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image35.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1285300110012031</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image36.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.2530445180000243</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image37.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.2884483540001384</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image38.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.2281740819998959</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image39.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.1925255650003237</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image40.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.3197726560010778</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image41.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.2452609190004296</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image42.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.2654260380004416</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image43.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.2354980000000069</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image44.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.3839331729996047</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image45.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.3397121749985672</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image46.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.3746977699993295</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image47.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.326033159999497</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image48.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.3133325029994012</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>/Users/juliusmaerz/Documents/GitHub/Julius-Calendar_App/Images/Compressed_image49.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
